--- a/Car_Sales.xlsx
+++ b/Car_Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job_Stuff\Skill-UpTechnologies\IBM\DataAnalystCurriculumDesign\Course 3 - Visualizing Data without Programming\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONYA\Documents\Python Scripts\material-script\Local_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{FBBFCD1E-D52B-425E-99A0-7D40652C9744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6CC6AB-42BA-40C5-919F-F991354C157D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6B8B4E-C846-44E8-BC14-DBF22F960083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Car_sales" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="14874" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -722,7 +722,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1297,6 +1297,66 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1691,30 +1751,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
@@ -2112,48 +2148,12 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -2183,7 +2183,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab3COMPLETED.xlsx]Bar Chart!PivotTable4</c:name>
+    <c:name>[Car_Sales.xlsx]Bar Chart!PivotTable4</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -2213,14 +2213,20 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2239,7 +2245,7 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
+          <c:showLegendKey val="1"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
@@ -2274,14 +2280,20 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2300,7 +2312,7 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
+          <c:showLegendKey val="1"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
@@ -2351,14 +2363,20 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2377,7 +2395,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
+            <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
@@ -2386,20 +2404,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2489,14 +2494,20 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2515,7 +2526,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
+            <c:showLegendKey val="1"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
@@ -2524,20 +2535,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3507,6 +3505,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3E31-4539-8DDD-AAADFC27C76D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3529,6 +3532,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3E31-4539-8DDD-AAADFC27C76D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3551,6 +3559,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3E31-4539-8DDD-AAADFC27C76D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3598,27 +3611,14 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3708,7 +3708,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -4227,589 +4227,8 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="50"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Column, Pie, Sunburst Chart'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Retention %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7B83-4239-95B9-5E04C5C5297E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4Runner</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avalon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Camry</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Celica</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Corolla</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Land Cruiser</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>RAV4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sienna</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Tacoma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.87154522613065322</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71011939714229788</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75607946112569924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91525925925925922</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76480012206286241</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65883080729972165</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78902179062055899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83552396280400576</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83058639833448988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-7B83-4239-95B9-5E04C5C5297E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Car_Sales_Kaggle_DV0130EN_Lab3COMPLETED.xlsx]Bar Chart!PivotTable4</c:name>
+    <c:name>[Car_Sales.xlsx]Bar Chart!PivotTable4</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -4820,12 +4239,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4833,7 +4249,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average Price and Year Resale Value of German Car Models</a:t>
             </a:r>
           </a:p>
@@ -4852,12 +4275,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4907,7 +4327,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -4968,7 +4388,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -5029,7 +4449,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -5090,7 +4510,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -5145,15 +4565,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5206,15 +4624,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5283,15 +4699,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5421,15 +4835,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5561,12 +4973,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5632,12 +5041,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5679,12 +5085,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5735,7 +5138,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5757,6 +5167,589 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Retention %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-AA9B-4E44-999F-2E2C95514C7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$B$2:$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4Runner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avalon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corolla</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Land Cruiser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RAV4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sienna</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tacoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column, Pie, Sunburst Chart'!$F$2:$F$156</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.87154522613065322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71011939714229788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75607946112569924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91525925925925922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76480012206286241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65883080729972165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78902179062055899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83552396280400576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83058639833448988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-AA9B-4E44-999F-2E2C95514C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9034,6 +9027,1136 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9634,1136 +10757,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-                <a:lumOff val="10000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-                <a:lumOff val="10000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10774,10 +10767,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10804,19 +10797,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180969</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Manufacturer">
@@ -10839,7 +10832,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10849,8 +10842,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13982700" y="990600"/>
-              <a:ext cx="1828800" cy="2428869"/>
+              <a:off x="11601450" y="762000"/>
+              <a:ext cx="1737360" cy="4591050"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11055,8 +11048,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="1546225" y="5672455"/>
+              <a:ext cx="4486910" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11075,7 +11068,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -11132,16 +11125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11173,57 +11166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D17888-AACB-4B15-BB27-B9C8F443F624}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2408A841-DF58-4996-BEA0-8AE838E2E724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11247,7 +11199,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -11262,8 +11214,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2828925"/>
-              <a:ext cx="4102100" cy="2743200"/>
+              <a:off x="247650" y="2935605"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11282,7 +11234,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -11295,19 +11247,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Model 1">
@@ -11333,7 +11285,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11343,8 +11295,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3667125" y="3467100"/>
-              <a:ext cx="2628900" cy="2628900"/>
+              <a:off x="10488930" y="2937510"/>
+              <a:ext cx="1615440" cy="2750820"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11363,7 +11315,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
               </a:r>
@@ -11377,15 +11329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11409,7 +11361,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11417,19 +11369,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Manufacturer 1">
@@ -11455,7 +11407,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11465,8 +11417,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13658850" y="1390650"/>
-              <a:ext cx="1600200" cy="2428869"/>
+              <a:off x="5901690" y="182880"/>
+              <a:ext cx="1691640" cy="2769870"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11485,7 +11437,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
@@ -11494,6 +11446,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293369</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>384809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C72A55-C9E4-4F6F-8C08-F55F489DA6EA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FB3583C9-9018-1F41-9B0A-2736C6E10D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15334,7 +15327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="14874" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{191ED8E3-C620-497D-9A41-5CFFDA72B39C}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
@@ -15525,7 +15518,7 @@
         <item h="1" sd="0" x="24"/>
         <item h="1" sd="0" x="25"/>
         <item h="1" sd="0" x="26"/>
-        <item h="1" x="27"/>
+        <item h="1" sd="0" x="27"/>
         <item sd="0" x="28"/>
         <item h="1" sd="0" x="29"/>
         <item t="default" sd="0"/>
@@ -15911,7 +15904,7 @@
     <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="78" numFmtId="167"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="44">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15920,7 +15913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15929,7 +15922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15938,7 +15931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16167,41 +16160,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Table1" displayName="Table1" ref="A1:S156" totalsRowShown="0" headerRowDxfId="41" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{597DCCBB-1D00-4B74-A561-F0C0BDE98FA1}" name="Sales_Table" displayName="Sales_Table" ref="A1:S156" totalsRowShown="0" headerRowDxfId="47" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}"/>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="40" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="39" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{0090DD31-AAEF-418B-A6D5-5A47F973884A}" name="Manufacturer" dataDxfId="46" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{1D457C4B-D2B8-4760-9FBD-20980339C812}" name="Model" dataDxfId="45" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8522711B-6353-4D72-9921-4036DEB24699}" name="Unit Sales" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{3F2EFF05-CEC1-43C4-8457-EC0A04BFE37D}" name="Price" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{D0C7E9A3-6A78-4834-995F-71A07F7E5FEC}" name="Year Resale Value" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{2892AE5C-2583-41F9-9297-9EA4C2895B5F}" name="Retention %" dataDxfId="41">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{40A7E790-705B-474C-BD5E-B93CFDEAAD37}" name="Retention Value" dataDxfId="40">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="31">
+    <tableColumn id="9" xr3:uid="{9FD1D782-0EB9-4AC8-9FB6-1F5437BC6100}" name="Engine Size" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{97F7DE8D-9589-426B-AA4F-2E3F8BB7A81B}" name="Horsepower" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{4CB9C68E-A6F1-497A-9877-E41495059145}" name="HP Level" dataDxfId="37">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="30"/>
-    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3733B2DD-D65D-439A-9EC2-28F65DC369D7}" name="Vehicle_type" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{5136D0F0-2F8F-4D70-995F-CE39B1996127}" name="Fuel Efficiency" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{5F133F36-F1C6-453A-A10C-A9917A623804}" name="Power Perf Factor" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{6E551230-1170-40DA-8649-BDDA922271D8}" name="Wheelbase" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{53A36FF3-E823-43B4-958B-9E02EC2B56F7}" name="Width" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{0728B768-EB40-4E54-9F8B-8FC310D3272C}" name="Length" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{2264EB11-0818-4B2A-A027-42B066FA9869}" name="Curb Weight" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{58B24934-BE7E-4FBD-9F96-CEF0725C6117}" name="Fuel Capacity" dataDxfId="29"/>
+    <tableColumn id="18" xr3:uid="{00FF364F-DDBE-4E2C-8F3E-DBDA321FA22A}" name="Latest Launch" dataDxfId="28"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="19" headerRowCellStyle="60% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D2600A8-6634-4642-AAD2-0860E46FD306}" name="Table14" displayName="Table14" ref="A1:S156" totalsRowShown="0" headerRowDxfId="27" headerRowCellStyle="60% - Accent1">
   <autoFilter ref="A1:S156" xr:uid="{142A1155-8F99-4580-8274-3FFCD265F860}">
     <filterColumn colId="0">
       <filters>
@@ -16213,31 +16206,31 @@
     <sortCondition ref="B1:B156"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="18" dataCellStyle="60% - Accent2"/>
-    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="17" dataCellStyle="60% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{CCFD9DCD-33DA-4C1C-B39D-1F8C0CA940C0}" name="Manufacturer" dataDxfId="26" dataCellStyle="60% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{91732ACF-B59B-4736-A06E-BE7ADB4669C2}" name="Model" dataDxfId="25" dataCellStyle="60% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{AC38EB39-9FE7-4815-9A95-BD4739621249}" name="Unit Sales" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{48155666-2FFE-4435-98FA-77A71F62A4CD}" name="Price" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{E6C9B305-43C4-4AA9-AF99-52F226A2A489}" name="Year Resale Value" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{53AB75B2-B4C7-4B08-A310-E333B5D08F1E}" name="Retention %" dataDxfId="21">
       <calculatedColumnFormula>SUM(E2/D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{14C0ED08-C800-44FC-AEFF-AD4CB3BA4CE3}" name="Retention Value" dataDxfId="20">
       <calculatedColumnFormula>IF(F2&gt;69%, "GOOD", "POOR")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{2D1C7A45-6CF4-4F66-812C-40A50CEEFE3C}" name="Engine Size" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{6F868495-C5F3-4EB0-A931-7DB5EE263B04}" name="Horsepower" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{21D8283C-331B-4FBC-ADCB-511EC8FEEA5B}" name="HP Level" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.IFS(I2&gt;299,"High HP",I2&gt;99,"Medium HP",I2&lt;100,"Low HP")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D8DD2294-3DBB-4222-BDE1-25B41E8C6E23}" name="Vehicle_type" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{41974CDD-17C2-4811-8CA1-4FE62EF36874}" name="Fuel Efficiency" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{FF974689-EC10-4BD7-931E-F6D2FC8A04BB}" name="Power Perf Factor" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{A47D6D7B-55BF-4939-8425-7A7DC0E408AE}" name="Fuel Capacity" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{59E0B2CA-E73A-4CDD-A62F-F1A4C75E90F7}" name="Wheelbase" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{1318511A-327E-4603-9CFA-8A67BC21BEB8}" name="Width" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B48108FE-8EF4-43AB-ACEA-F7B30A9D3C55}" name="Length" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{1C70CD07-6AE4-4D29-95C6-1D02DF8772F3}" name="Curb Weight" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{801588FA-173B-403F-BAF7-D1F66FFF62EA}" name="Latest Launch" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16543,39 +16536,39 @@
   <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26171875" customWidth="1"/>
+    <col min="2" max="2" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.41796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="13.15625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.83984375" customWidth="1"/>
+    <col min="11" max="11" width="14.83984375" customWidth="1"/>
+    <col min="12" max="12" width="14.68359375" customWidth="1"/>
+    <col min="13" max="13" width="17.83984375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.41796875" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="22" width="8.85546875"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26171875" customWidth="1"/>
+    <col min="18" max="18" width="13.15625" customWidth="1"/>
+    <col min="19" max="19" width="13.41796875" customWidth="1"/>
+    <col min="20" max="22" width="8.83984375"/>
+    <col min="23" max="23" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16634,7 +16627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -16696,7 +16689,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -16758,7 +16751,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -16820,7 +16813,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -16884,7 +16877,7 @@
       <c r="U5" s="1"/>
       <c r="W5" s="13"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -16947,7 +16940,7 @@
       </c>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -17010,7 +17003,7 @@
       </c>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -17073,7 +17066,7 @@
       </c>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -17136,7 +17129,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -17199,7 +17192,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -17262,7 +17255,7 @@
       </c>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -17325,7 +17318,7 @@
       </c>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -17388,7 +17381,7 @@
       </c>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -17450,7 +17443,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -17512,7 +17505,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -17575,7 +17568,7 @@
       </c>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -17637,7 +17630,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -17699,7 +17692,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -17761,7 +17754,7 @@
         <v>41016</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -17823,7 +17816,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -17887,7 +17880,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -17952,7 +17945,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -18014,7 +18007,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -18076,7 +18069,7 @@
         <v>40839</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -18138,7 +18131,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -18200,7 +18193,7 @@
         <v>40797</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -18262,7 +18255,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -18324,7 +18317,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -18386,7 +18379,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -18448,7 +18441,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -18510,7 +18503,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -18572,7 +18565,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -18634,7 +18627,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -18696,7 +18689,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -18758,7 +18751,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -18820,7 +18813,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -18882,7 +18875,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -18944,7 +18937,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -19006,7 +18999,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -19068,7 +19061,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -19130,7 +19123,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -19192,7 +19185,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -19254,7 +19247,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -19316,7 +19309,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -19378,7 +19371,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>73</v>
       </c>
@@ -19440,7 +19433,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -19502,7 +19495,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -19564,7 +19557,7 @@
         <v>41141</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -19626,7 +19619,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -19688,7 +19681,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
@@ -19750,7 +19743,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>73</v>
       </c>
@@ -19812,7 +19805,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -19874,7 +19867,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
@@ -19936,7 +19929,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -19998,7 +19991,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -20060,7 +20053,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -20122,7 +20115,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -20184,7 +20177,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -20246,7 +20239,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -20308,7 +20301,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -20370,7 +20363,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
@@ -20432,7 +20425,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -20494,7 +20487,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>91</v>
       </c>
@@ -20556,7 +20549,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
@@ -20618,7 +20611,7 @@
         <v>41014</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>97</v>
       </c>
@@ -20680,7 +20673,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>99</v>
       </c>
@@ -20742,7 +20735,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -20804,7 +20797,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
@@ -20866,7 +20859,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -20928,7 +20921,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -20990,7 +20983,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -21052,7 +21045,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -21114,7 +21107,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -21176,7 +21169,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -21238,7 +21231,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>110</v>
       </c>
@@ -21300,7 +21293,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -21362,7 +21355,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
@@ -21424,7 +21417,7 @@
         <v>41266</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>114</v>
       </c>
@@ -21486,7 +21479,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -21548,7 +21541,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -21610,7 +21603,7 @@
         <v>40937</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
@@ -21672,7 +21665,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -21734,7 +21727,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -21796,7 +21789,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -21858,7 +21851,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>122</v>
       </c>
@@ -21920,7 +21913,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>122</v>
       </c>
@@ -21982,7 +21975,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>122</v>
       </c>
@@ -22044,7 +22037,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
@@ -22106,7 +22099,7 @@
         <v>41114</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
@@ -22168,7 +22161,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>122</v>
       </c>
@@ -22230,7 +22223,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="s">
         <v>129</v>
       </c>
@@ -22292,7 +22285,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>129</v>
       </c>
@@ -22354,7 +22347,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>129</v>
       </c>
@@ -22416,7 +22409,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>129</v>
       </c>
@@ -22478,7 +22471,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
         <v>129</v>
       </c>
@@ -22540,7 +22533,7 @@
         <v>40559</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
         <v>129</v>
       </c>
@@ -22602,7 +22595,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>129</v>
       </c>
@@ -22664,7 +22657,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
@@ -22726,7 +22719,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>129</v>
       </c>
@@ -22788,7 +22781,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
         <v>139</v>
       </c>
@@ -22850,7 +22843,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>139</v>
       </c>
@@ -22912,7 +22905,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>139</v>
       </c>
@@ -22974,7 +22967,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
         <v>139</v>
       </c>
@@ -23036,7 +23029,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="s">
         <v>139</v>
       </c>
@@ -23098,7 +23091,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="s">
         <v>139</v>
       </c>
@@ -23160,7 +23153,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="s">
         <v>139</v>
       </c>
@@ -23222,7 +23215,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="s">
         <v>147</v>
       </c>
@@ -23284,7 +23277,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -23346,7 +23339,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>147</v>
       </c>
@@ -23408,7 +23401,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
         <v>147</v>
       </c>
@@ -23470,7 +23463,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="s">
         <v>147</v>
       </c>
@@ -23532,7 +23525,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="s">
         <v>147</v>
       </c>
@@ -23594,7 +23587,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3" t="s">
         <v>154</v>
       </c>
@@ -23656,7 +23649,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="s">
         <v>154</v>
       </c>
@@ -23718,7 +23711,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3" t="s">
         <v>154</v>
       </c>
@@ -23780,7 +23773,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3" t="s">
         <v>154</v>
       </c>
@@ -23842,7 +23835,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3" t="s">
         <v>158</v>
       </c>
@@ -23904,7 +23897,7 @@
         <v>40933</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
@@ -23966,7 +23959,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3" t="s">
         <v>158</v>
       </c>
@@ -24028,7 +24021,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3" t="s">
         <v>158</v>
       </c>
@@ -24090,7 +24083,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
@@ -24152,7 +24145,7 @@
         <v>40681</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="s">
         <v>158</v>
       </c>
@@ -24214,7 +24207,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3" t="s">
         <v>165</v>
       </c>
@@ -24276,7 +24269,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3" t="s">
         <v>165</v>
       </c>
@@ -24338,7 +24331,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3" t="s">
         <v>165</v>
       </c>
@@ -24400,7 +24393,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3" t="s">
         <v>169</v>
       </c>
@@ -24462,7 +24455,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3" t="s">
         <v>169</v>
       </c>
@@ -24524,7 +24517,7 @@
         <v>40706</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
         <v>172</v>
       </c>
@@ -24586,7 +24579,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3" t="s">
         <v>172</v>
       </c>
@@ -24648,7 +24641,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3" t="s">
         <v>172</v>
       </c>
@@ -24710,7 +24703,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3" t="s">
         <v>172</v>
       </c>
@@ -24772,7 +24765,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3" t="s">
         <v>172</v>
       </c>
@@ -24834,7 +24827,7 @@
         <v>41247</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -24896,7 +24889,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3" t="s">
         <v>178</v>
       </c>
@@ -24958,7 +24951,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3" t="s">
         <v>181</v>
       </c>
@@ -25020,7 +25013,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -25082,7 +25075,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
         <v>181</v>
       </c>
@@ -25144,7 +25137,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3" t="s">
         <v>181</v>
       </c>
@@ -25206,7 +25199,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -25268,7 +25261,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -25330,7 +25323,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -25392,7 +25385,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -25454,7 +25447,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -25516,7 +25509,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
@@ -25578,7 +25571,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="s">
         <v>191</v>
       </c>
@@ -25640,7 +25633,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3" t="s">
         <v>191</v>
       </c>
@@ -25702,7 +25695,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -25764,7 +25757,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3" t="s">
         <v>191</v>
       </c>
@@ -25826,7 +25819,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3" t="s">
         <v>191</v>
       </c>
@@ -25888,7 +25881,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>198</v>
       </c>
@@ -25950,7 +25943,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="s">
         <v>198</v>
       </c>
@@ -26012,7 +26005,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3" t="s">
         <v>198</v>
       </c>
@@ -26074,7 +26067,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="s">
         <v>198</v>
       </c>
@@ -26136,7 +26129,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -26198,7 +26191,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3" t="s">
         <v>198</v>
       </c>
@@ -26262,13 +26255,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26283,25 +26274,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D1CA60-5813-4297-83D8-6BD86D0F61FA}">
   <dimension ref="A3:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.47265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="135" width="6" bestFit="1" customWidth="1"/>
     <col min="136" max="156" width="7" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
         <v>205</v>
       </c>
@@ -26312,7 +26303,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -26323,7 +26314,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -26334,7 +26325,7 @@
         <v>33096.666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
         <v>129</v>
       </c>
@@ -26345,7 +26336,7 @@
         <v>52916.666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>165</v>
       </c>
@@ -26356,7 +26347,7 @@
         <v>62473.333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>191</v>
       </c>
@@ -26367,7 +26358,7 @@
         <v>17698.333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
         <v>208</v>
       </c>
@@ -26378,139 +26369,139 @@
         <v>41212.083333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16"/>
       <c r="C16"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B43"/>
       <c r="C43"/>
     </row>
@@ -26533,38 +26524,38 @@
   <dimension ref="A1:Z156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K181" sqref="K181"/>
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26171875" customWidth="1"/>
+    <col min="2" max="2" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.41796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.41796875" customWidth="1"/>
+    <col min="8" max="8" width="13.15625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83984375" customWidth="1"/>
+    <col min="11" max="11" width="14.83984375" customWidth="1"/>
+    <col min="12" max="12" width="14.68359375" customWidth="1"/>
+    <col min="13" max="13" width="17.83984375" customWidth="1"/>
+    <col min="14" max="14" width="13.15625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.41796875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26171875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.41796875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26623,7 +26614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -26685,7 +26676,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -26747,7 +26738,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -26809,7 +26800,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -26873,7 +26864,7 @@
       <c r="U5" s="1"/>
       <c r="W5" s="13"/>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -26936,7 +26927,7 @@
       </c>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -26999,7 +26990,7 @@
       </c>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -27062,7 +27053,7 @@
       </c>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -27125,7 +27116,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -27188,7 +27179,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -27251,7 +27242,7 @@
       </c>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -27314,7 +27305,7 @@
       </c>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -27377,7 +27368,7 @@
       </c>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -27439,7 +27430,7 @@
         <v>40747</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -27501,7 +27492,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -27564,7 +27555,7 @@
       </c>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -27626,7 +27617,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -27688,7 +27679,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -27750,7 +27741,7 @@
         <v>41016</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -27812,7 +27803,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -27876,7 +27867,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -27941,7 +27932,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -28003,7 +27994,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -28065,7 +28056,7 @@
         <v>40839</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -28127,7 +28118,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -28189,7 +28180,7 @@
         <v>40797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -28251,7 +28242,7 @@
         <v>41012</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -28313,7 +28304,7 @@
         <v>40712</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -28375,7 +28366,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -28437,7 +28428,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -28499,7 +28490,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -28561,7 +28552,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -28623,7 +28614,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -28685,7 +28676,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -28747,7 +28738,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -28809,7 +28800,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -28871,7 +28862,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -28933,7 +28924,7 @@
         <v>41062</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -28995,7 +28986,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -29057,7 +29048,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -29119,7 +29110,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -29181,7 +29172,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -29243,7 +29234,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -29305,7 +29296,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -29367,7 +29358,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>73</v>
       </c>
@@ -29429,7 +29420,7 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -29491,7 +29482,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -29553,7 +29544,7 @@
         <v>41141</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -29615,7 +29606,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -29677,7 +29668,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
@@ -29739,7 +29730,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>73</v>
       </c>
@@ -29801,7 +29792,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -29863,7 +29854,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
@@ -29925,7 +29916,7 @@
         <v>41166</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
@@ -29987,7 +29978,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -30049,7 +30040,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -30111,7 +30102,7 @@
         <v>40837</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -30173,7 +30164,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -30235,7 +30226,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -30297,7 +30288,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -30359,7 +30350,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>91</v>
       </c>
@@ -30421,7 +30412,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>91</v>
       </c>
@@ -30483,7 +30474,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>91</v>
       </c>
@@ -30545,7 +30536,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
@@ -30607,7 +30598,7 @@
         <v>41014</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>97</v>
       </c>
@@ -30669,7 +30660,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>99</v>
       </c>
@@ -30731,7 +30722,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
@@ -30793,7 +30784,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
@@ -30855,7 +30846,7 @@
         <v>40887</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -30917,7 +30908,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -30979,7 +30970,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -31041,7 +31032,7 @@
         <v>41241</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -31103,7 +31094,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -31165,7 +31156,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -31227,7 +31218,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>110</v>
       </c>
@@ -31289,7 +31280,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -31351,7 +31342,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>110</v>
       </c>
@@ -31413,7 +31404,7 @@
         <v>41266</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>114</v>
       </c>
@@ -31475,7 +31466,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -31537,7 +31528,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
@@ -31599,7 +31590,7 @@
         <v>40937</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>114</v>
       </c>
@@ -31661,7 +31652,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -31723,7 +31714,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -31785,7 +31776,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -31847,7 +31838,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>122</v>
       </c>
@@ -31909,7 +31900,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>122</v>
       </c>
@@ -31971,7 +31962,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>122</v>
       </c>
@@ -32033,7 +32024,7 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
@@ -32095,7 +32086,7 @@
         <v>41114</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
@@ -32157,7 +32148,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>122</v>
       </c>
@@ -32219,7 +32210,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="s">
         <v>129</v>
       </c>
@@ -32281,7 +32272,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>129</v>
       </c>
@@ -32343,7 +32334,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>129</v>
       </c>
@@ -32405,7 +32396,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>129</v>
       </c>
@@ -32467,7 +32458,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
         <v>129</v>
       </c>
@@ -32529,7 +32520,7 @@
         <v>40559</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
         <v>129</v>
       </c>
@@ -32591,7 +32582,7 @@
         <v>40761</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>129</v>
       </c>
@@ -32653,7 +32644,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
@@ -32715,7 +32706,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>129</v>
       </c>
@@ -32777,7 +32768,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
         <v>139</v>
       </c>
@@ -32839,7 +32830,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>139</v>
       </c>
@@ -32901,7 +32892,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>139</v>
       </c>
@@ -32963,7 +32954,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
         <v>139</v>
       </c>
@@ -33025,7 +33016,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="s">
         <v>139</v>
       </c>
@@ -33087,7 +33078,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="s">
         <v>139</v>
       </c>
@@ -33149,7 +33140,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="s">
         <v>139</v>
       </c>
@@ -33211,7 +33202,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="s">
         <v>147</v>
       </c>
@@ -33273,7 +33264,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
         <v>147</v>
       </c>
@@ -33335,7 +33326,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>147</v>
       </c>
@@ -33397,7 +33388,7 @@
         <v>40106</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
         <v>147</v>
       </c>
@@ -33459,7 +33450,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="s">
         <v>147</v>
       </c>
@@ -33521,7 +33512,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="s">
         <v>147</v>
       </c>
@@ -33583,7 +33574,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3" t="s">
         <v>154</v>
       </c>
@@ -33645,7 +33636,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="s">
         <v>154</v>
       </c>
@@ -33707,7 +33698,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3" t="s">
         <v>154</v>
       </c>
@@ -33769,7 +33760,7 @@
         <v>40657</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3" t="s">
         <v>154</v>
       </c>
@@ -33831,7 +33822,7 @@
         <v>41087</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3" t="s">
         <v>158</v>
       </c>
@@ -33893,7 +33884,7 @@
         <v>40933</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
@@ -33955,7 +33946,7 @@
         <v>41239</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3" t="s">
         <v>158</v>
       </c>
@@ -34017,7 +34008,7 @@
         <v>41076</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3" t="s">
         <v>158</v>
       </c>
@@ -34079,7 +34070,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
@@ -34141,7 +34132,7 @@
         <v>40681</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="s">
         <v>158</v>
       </c>
@@ -34203,7 +34194,7 @@
         <v>41112</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3" t="s">
         <v>165</v>
       </c>
@@ -34265,7 +34256,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3" t="s">
         <v>165</v>
       </c>
@@ -34327,7 +34318,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3" t="s">
         <v>165</v>
       </c>
@@ -34389,7 +34380,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3" t="s">
         <v>169</v>
       </c>
@@ -34451,7 +34442,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3" t="s">
         <v>169</v>
       </c>
@@ -34513,7 +34504,7 @@
         <v>40706</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
         <v>172</v>
       </c>
@@ -34575,7 +34566,7 @@
         <v>41137</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3" t="s">
         <v>172</v>
       </c>
@@ -34637,7 +34628,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3" t="s">
         <v>172</v>
       </c>
@@ -34699,7 +34690,7 @@
         <v>40558</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3" t="s">
         <v>172</v>
       </c>
@@ -34761,7 +34752,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3" t="s">
         <v>172</v>
       </c>
@@ -34823,7 +34814,7 @@
         <v>41247</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -34885,7 +34876,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3" t="s">
         <v>178</v>
       </c>
@@ -34947,7 +34938,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3" t="s">
         <v>181</v>
       </c>
@@ -35009,7 +35000,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -35071,7 +35062,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
         <v>181</v>
       </c>
@@ -35133,7 +35124,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3" t="s">
         <v>181</v>
       </c>
@@ -35195,7 +35186,7 @@
         <v>41272</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3" t="s">
         <v>181</v>
       </c>
@@ -35257,7 +35248,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="s">
         <v>181</v>
       </c>
@@ -35319,7 +35310,7 @@
         <v>40811</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3" t="s">
         <v>181</v>
       </c>
@@ -35381,7 +35372,7 @@
         <v>40669</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3" t="s">
         <v>181</v>
       </c>
@@ -35443,7 +35434,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3" t="s">
         <v>181</v>
       </c>
@@ -35505,7 +35496,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3" t="s">
         <v>191</v>
       </c>
@@ -35567,7 +35558,7 @@
         <v>40567</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="s">
         <v>191</v>
       </c>
@@ -35629,7 +35620,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3" t="s">
         <v>191</v>
       </c>
@@ -35691,7 +35682,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -35753,7 +35744,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3" t="s">
         <v>191</v>
       </c>
@@ -35815,7 +35806,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3" t="s">
         <v>191</v>
       </c>
@@ -35877,7 +35868,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>198</v>
       </c>
@@ -35939,7 +35930,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="s">
         <v>198</v>
       </c>
@@ -36001,7 +35992,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3" t="s">
         <v>198</v>
       </c>
@@ -36063,7 +36054,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="s">
         <v>198</v>
       </c>
@@ -36125,7 +36116,7 @@
         <v>40719</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -36187,7 +36178,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3" t="s">
         <v>198</v>
       </c>
@@ -36251,13 +36242,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="POOR">
+      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G156">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="POOR">
-      <formula>NOT(ISERROR(SEARCH("POOR",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36281,32 +36270,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F32"/>
+  <dimension ref="G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.41796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="32" spans="6:6">
-      <c r="F32" t="s">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
